--- a/OrderProcess/Orders.xlsx
+++ b/OrderProcess/Orders.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80B02FC-83D1-4C0B-AE60-E282D3DFEAA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Product</t>
   </si>
@@ -74,12 +75,21 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Rogerio</t>
+  </si>
+  <si>
+    <t>Pereira</t>
+  </si>
+  <si>
+    <t>701 W Mithcel Cir, 238 D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,19 +401,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -426,7 +436,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -434,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -442,7 +452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -450,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -458,7 +468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -466,7 +476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -474,7 +484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -489,24 +499,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -524,6 +534,26 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>76013</v>
+      </c>
+      <c r="E2" s="1">
+        <v>310</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4987323</v>
       </c>
     </row>
   </sheetData>

--- a/OrderProcess/Orders.xlsx
+++ b/OrderProcess/Orders.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80B02FC-83D1-4C0B-AE60-E282D3DFEAA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715592BD-E28E-412E-AE5F-3EC66D2E3F7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,10 +486,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>4</v>
       </c>
     </row>
@@ -500,10 +501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,26 +538,35 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>76013</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>310</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>4987323</v>
       </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OrderProcess/Orders.xlsx
+++ b/OrderProcess/Orders.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715592BD-E28E-412E-AE5F-3EC66D2E3F7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6848AD67-21E0-48FE-8437-4BFF2EE28563}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,8 +90,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -119,10 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,18 +413,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +438,9 @@
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -437,7 +449,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -445,7 +457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -453,15 +465,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -469,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -477,7 +490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -485,7 +498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>

--- a/OrderProcess/Orders.xlsx
+++ b/OrderProcess/Orders.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6848AD67-21E0-48FE-8437-4BFF2EE28563}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C8BFA-F11E-40FB-8631-06D042481DE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Product</t>
   </si>
@@ -84,22 +84,26 @@
   </si>
   <si>
     <t>701 W Mithcel Cir, 238 D</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Order Number: 512464</t>
+  </si>
+  <si>
+    <t>Erro</t>
+  </si>
+  <si>
+    <t>Product Ipoh Coff not Found</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -127,12 +131,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,19 +415,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,72 +439,117 @@
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/OrderProcess/Orders.xlsx
+++ b/OrderProcess/Orders.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C8BFA-F11E-40FB-8631-06D042481DE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503C4C9A-DE01-42A2-9D79-08A6BD8CA0C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Order Number: 512464</t>
+    <t>Order Number: 512658</t>
   </si>
   <si>
     <t>Erro</t>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +551,31 @@
       <c r="D9" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OrderProcess/Orders.xlsx
+++ b/OrderProcess/Orders.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503C4C9A-DE01-42A2-9D79-08A6BD8CA0C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CC42D4-FC19-4EBE-B557-7D5492117026}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Product</t>
   </si>
@@ -89,13 +89,16 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Order Number: 512658</t>
-  </si>
-  <si>
     <t>Erro</t>
   </si>
   <si>
+    <t>Product Ipoh Coffee not Found</t>
+  </si>
+  <si>
     <t>Product Ipoh Coff not Found</t>
+  </si>
+  <si>
+    <t>Order Number: 512718</t>
   </si>
 </sst>
 </file>
@@ -131,10 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +422,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,11 +451,11 @@
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -461,11 +465,11 @@
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -475,11 +479,11 @@
       <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,11 +493,11 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,11 +507,11 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,11 +521,11 @@
       <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,11 +535,11 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,18 +549,22 @@
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
